--- a/hasil ujian tahfidz/hasil ujian tahfidz - jahrisa juana.xlsx
+++ b/hasil ujian tahfidz/hasil ujian tahfidz - jahrisa juana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\rekap-tahfidz\hasil ujian tahfidz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487A1C5B-7AF7-4765-8D4C-CE692605F6C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44B030B-A6D3-41F8-94D2-C6FF3BEE54D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{FBABE9AF-663C-48BC-B2A5-05E25A948692}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="6" xr2:uid="{FBABE9AF-663C-48BC-B2A5-05E25A948692}"/>
   </bookViews>
   <sheets>
     <sheet name="juz 30" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="juz 3" sheetId="6" r:id="rId4"/>
     <sheet name="juz 4" sheetId="7" r:id="rId5"/>
     <sheet name="juz 5" sheetId="8" r:id="rId6"/>
-    <sheet name="juz 6" sheetId="9" r:id="rId7"/>
+    <sheet name="juz 6 - last" sheetId="9" r:id="rId7"/>
     <sheet name="juz 7" sheetId="10" r:id="rId8"/>
     <sheet name="juz 8" sheetId="11" r:id="rId9"/>
     <sheet name="juz 9" sheetId="12" r:id="rId10"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'juz 30'!$A$1:$E$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'juz 4'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'juz 5'!$A$1:$E$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'juz 6'!$A$1:$E$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'juz 6 - last'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'juz 7'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'juz 8'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'juz 9'!$A$1:$E$43</definedName>
@@ -1855,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E7EE10-9437-493A-8814-E1A4091113FF}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71C77C2-921A-4F58-A7C8-2EA1D1F12FAF}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,10 +3307,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
       <c r="D29" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3439,7 +3441,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>100</v>
+        <v>99.666666666666657</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3477,8 +3479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457E5CA9-811F-4843-8198-28F642C325FE}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,14 +3660,16 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
       <c r="D20" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3772,10 +3776,12 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
       <c r="D26" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3791,14 +3797,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
       <c r="D27" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3810,14 +3818,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
       <c r="D28" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3829,10 +3839,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
       <c r="D29" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3848,14 +3860,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
       <c r="D30" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3867,10 +3881,12 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
       <c r="D31" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3886,10 +3902,12 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
       <c r="D32" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3905,14 +3923,16 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
       <c r="D33" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3924,10 +3944,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
       <c r="D34" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3961,7 +3983,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>100</v>
+        <v>94.666666666666657</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3999,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43302F31-82AC-4640-A60A-CADF25D070C3}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4351,10 +4373,12 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
       <c r="D29" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4389,10 +4413,12 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
       <c r="D31" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4408,14 +4434,16 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
       <c r="D32" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4427,14 +4455,16 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
       <c r="D33" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4446,10 +4476,12 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
       <c r="D34" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4465,14 +4497,16 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6">
+        <v>3</v>
+      </c>
       <c r="D35" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4483,7 +4517,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>100</v>
+        <v>96.666666666666657</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4521,8 +4555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE6E1BD-DB97-4CE4-971B-80D38B23570A}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,10 +4717,12 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
       <c r="D19" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4702,10 +4738,12 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
       <c r="D20" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4778,10 +4816,12 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
       <c r="D24" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4797,10 +4837,12 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
       <c r="D25" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4835,10 +4877,12 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
       <c r="D27" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4854,10 +4898,12 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
       <c r="D28" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4949,10 +4995,12 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
       <c r="D33" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4987,14 +5035,16 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
       <c r="D35" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5005,7 +5055,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5043,8 +5093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FBC582-0128-4B2A-87D4-3753E496C244}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,10 +5217,12 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
       <c r="D17" s="8">
         <f t="shared" ref="D17:D35" si="3">(15-C17)/15*100</f>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5243,14 +5295,16 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6">
+        <v>3</v>
+      </c>
       <c r="D21" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,14 +5335,16 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6">
+        <v>5</v>
+      </c>
       <c r="D23" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5319,10 +5375,12 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
       <c r="D25" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5376,10 +5434,12 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
       <c r="D28" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5414,14 +5474,16 @@
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
       <c r="D30" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5471,10 +5533,12 @@
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
       <c r="D33" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5490,10 +5554,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
       <c r="D34" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5509,14 +5575,16 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
       <c r="D35" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5527,7 +5595,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>100</v>
+        <v>94.333333333333329</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5565,8 +5633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7E7389-C84E-4D99-8789-3ECABF0F139B}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5689,10 +5757,12 @@
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
       <c r="D17" s="8">
         <f t="shared" ref="D17:D35" si="3">(15-C17)/15*100</f>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5727,10 +5797,12 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
       <c r="D19" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5746,10 +5818,12 @@
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
       <c r="D20" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5765,14 +5839,16 @@
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6">
+        <v>4</v>
+      </c>
       <c r="D21" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5784,14 +5860,16 @@
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
       <c r="D22" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5803,14 +5881,16 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
       <c r="D23" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5841,14 +5921,16 @@
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
       <c r="D25" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5860,10 +5942,12 @@
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
       <c r="D26" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5879,10 +5963,12 @@
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
       <c r="D27" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5898,14 +5984,16 @@
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
       <c r="D28" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5936,14 +6024,16 @@
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6">
+        <v>10</v>
+      </c>
       <c r="D30" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Dhoif</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5955,10 +6045,12 @@
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
       <c r="D31" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5974,10 +6066,12 @@
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
       <c r="D32" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5993,14 +6087,16 @@
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>4</v>
+      </c>
       <c r="D33" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6012,14 +6108,16 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6">
+        <v>6</v>
+      </c>
       <c r="D34" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Dhoif</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6031,14 +6129,16 @@
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6">
+        <v>10</v>
+      </c>
       <c r="D35" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Dhoif</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6049,11 +6149,11 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>100</v>
+        <v>81.666666666666643</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
